--- a/九层妖塔策划文档/第一层结构图.xlsx
+++ b/九层妖塔策划文档/第一层结构图.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\浅淡的文字\鬼吹灯之九层妖塔\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\GitHub\gui\jiucengyaota\九层妖塔策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{35731597-913C-4E32-B1A0-B06072A4F4E9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8388"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>血</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,22 +123,233 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡：绳子、洛阳铲、罗盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨：伞。破解各种机关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胖子：枪。专业打怪</t>
+    <t>房间功能统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要点标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具及场景需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧闭的石门，踏板机关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏板机关（地板）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏板可以开启的门（门）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒气室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地上有血迹（剧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情、毒气室（剧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情点1：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨：地上有血迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡：是有人受伤了，血迹还是新的，看来这个地方不简单，我们要小心些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情点5：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨（身体轻微地抖了一下）：着石门紧闭，里面似乎有不好的东西，我有种不祥的预感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（如果玩家开启石门）：胡：你闻到很香的味道了么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨：不好，是毒气，快点离开这间屋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（场景切换，玩家继续回到了石门外，门被关上了）：剧情提示：你们逃离了毒气房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（引导）：在这个游戏里，有很多这样的有毒或者陷阱的房间，如果中毒或者掉入陷阱就会受到伤害，可以使用解药解读，或者有药水治疗机关造成的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（引导）点击人物头像查看玩家的详细属性及附加能力，杨萍可以感知到到危险的出现，但是不能知道危险的准确位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色的鱼眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色的石质圆盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生锈的奇怪钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门8：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（触摸提示需要一把钥匙）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（使用钥匙后0.2秒）钥匙转动的咔嚓声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（使用钥匙的0.5秒后）石门开启的声音，同时看到石门向右侧的墙壁里移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机关9：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能：机关有三个状态，分别打开主机关室的南、西、北、东四扇门</t>
+  </si>
+  <si>
+    <t>需要钥匙可以打开的门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙可以开启的门（和踏板机关的门外观不同）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机关室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认开启的石门（可通过机关室9关闭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭的石门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石门10、11、12、13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（触摸）：你使尽浑身的力气，石门仍然纹丝不动，怕是有什么机关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏板机关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏板机关14：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能：关闭石门11（你踩到了什么机关，石门关闭了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断掉的控制杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情、控制室、陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情16：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨：这个房间这么大，却只有中间拜访着一个石台，怕是有陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡：虽然不知道是什么陷阱，但是靠墙走是明智的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制室16：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间的一个石台上是一个控制室（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱16：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图中所示为两条陷阱带，踩中会掉血（每踩一格，掉30%血），被踩中的部分，陷阱永久显示在地图上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱，地刺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +420,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -582,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +958,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1055,25 +1276,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I4:BW45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="I4:CA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF43" sqref="AF43"/>
+    <sheetView tabSelected="1" topLeftCell="Q4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BT15" sqref="BT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="20" max="20" width="2.77734375" customWidth="1"/>
-    <col min="30" max="30" width="2.77734375" customWidth="1"/>
-    <col min="32" max="32" width="2.77734375" customWidth="1"/>
-    <col min="36" max="36" width="2.77734375" customWidth="1"/>
-    <col min="44" max="44" width="2.77734375" customWidth="1"/>
-    <col min="59" max="59" width="2.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="13:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="13:75" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="13:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="13:79" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB5" s="1"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
@@ -1083,26 +1296,20 @@
       <c r="AH5" s="50"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="3"/>
-      <c r="BG5">
-        <v>1</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR5">
-        <v>2</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="13:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BG5" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="13:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB6" s="4"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="51"/>
@@ -1112,20 +1319,29 @@
       <c r="AH6" s="51"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="6"/>
-      <c r="BG6">
+      <c r="BG6" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI6">
         <v>2</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BK6">
         <v>1</v>
       </c>
-      <c r="BO6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BR6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="13:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BL6" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS6">
+        <v>1</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="13:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S7" s="23"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
@@ -1138,9 +1354,6 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="51"/>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="5">
-        <v>17</v>
-      </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="51"/>
       <c r="AI7" s="5"/>
@@ -1153,26 +1366,29 @@
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10"/>
       <c r="AS7" s="20"/>
-      <c r="BG7">
-        <v>3</v>
-      </c>
-      <c r="BH7" t="s">
+      <c r="BG7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BK7">
         <v>2</v>
       </c>
-      <c r="BO7" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR7">
+      <c r="BL7" t="s">
+        <v>29</v>
+      </c>
+      <c r="BS7">
         <v>2</v>
       </c>
-      <c r="BV7">
-        <v>2</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="13:75" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BT7" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="13:79" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S8" s="11"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="5"/>
@@ -1184,77 +1400,125 @@
       <c r="AI8" s="5"/>
       <c r="AJ8" s="6"/>
       <c r="AS8" s="11"/>
-      <c r="BG8">
-        <v>4</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>6</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="13:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BG8" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI8">
+        <v>3</v>
+      </c>
+      <c r="BK8">
+        <v>3</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS8">
+        <v>3</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="13:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S9" s="11"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="52"/>
       <c r="AE9" s="8"/>
+      <c r="AF9" s="5">
+        <v>16</v>
+      </c>
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="9"/>
       <c r="AS9" s="11"/>
-      <c r="BG9">
-        <v>5</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BV9">
+      <c r="BG9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI9">
         <v>3</v>
       </c>
-      <c r="BW9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="13:75" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK9">
+        <v>4</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS9">
+        <v>4</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="13:79" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S10" s="11"/>
       <c r="AF10" s="11"/>
       <c r="AS10" s="11"/>
-      <c r="BG10">
-        <v>6</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="13:75" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK10">
+        <v>5</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS10">
+        <v>5</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="13:79" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S11" s="11"/>
       <c r="AF11" s="11"/>
       <c r="AS11" s="11"/>
-      <c r="BG11">
+      <c r="BK11">
+        <v>6</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS11">
         <v>7</v>
       </c>
-      <c r="BH11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="13:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT11" t="s">
+        <v>51</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="13:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S12" s="22"/>
       <c r="AF12" s="11"/>
       <c r="AS12" s="22"/>
-      <c r="BG12">
+      <c r="BK12">
+        <v>7</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>50</v>
+      </c>
+      <c r="BS12">
         <v>8</v>
       </c>
-      <c r="BH12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="13:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT12" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="13:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S13" s="4"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1268,14 +1532,23 @@
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="6"/>
-      <c r="BG13">
+      <c r="BK13">
+        <v>8</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>59</v>
+      </c>
+      <c r="BS13">
         <v>9</v>
       </c>
-      <c r="BH13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="13:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT13" t="s">
+        <v>70</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="13:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S14" s="4"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -1287,7 +1560,7 @@
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
       <c r="AJ14" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK14" s="5"/>
       <c r="AL14" s="6"/>
@@ -1295,14 +1568,23 @@
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
       <c r="AS14" s="6"/>
-      <c r="BG14">
+      <c r="BK14">
+        <v>9</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>52</v>
+      </c>
+      <c r="BS14">
         <v>10</v>
       </c>
-      <c r="BH14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="13:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BT14" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="13:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1310,7 +1592,7 @@
       <c r="Q15" s="3"/>
       <c r="S15" s="4"/>
       <c r="T15" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U15" s="5"/>
       <c r="V15" s="6"/>
@@ -1318,7 +1600,7 @@
       <c r="Z15" s="45"/>
       <c r="AA15" s="46"/>
       <c r="AF15" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI15" s="7"/>
       <c r="AJ15" s="8"/>
@@ -1327,7 +1609,7 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS15" s="6"/>
       <c r="AU15" s="1"/>
@@ -1335,14 +1617,17 @@
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
       <c r="AY15" s="3"/>
-      <c r="BG15">
-        <v>11</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="13:75" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK15">
+        <v>10</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>63</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="13:79" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -1362,19 +1647,20 @@
       <c r="AS16" s="6"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="5"/>
-      <c r="AW16" s="5">
-        <v>5</v>
-      </c>
+      <c r="AW16" s="5"/>
       <c r="AX16" s="5"/>
       <c r="AY16" s="6"/>
-      <c r="BG16">
-        <v>12</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="9:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BK16">
+        <v>11</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="9:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M17" s="7"/>
       <c r="N17" s="8"/>
       <c r="P17" s="8"/>
@@ -1393,17 +1679,22 @@
       <c r="AS17" s="9"/>
       <c r="AU17" s="7"/>
       <c r="AV17" s="8"/>
-      <c r="AW17" s="18"/>
+      <c r="AW17" s="18">
+        <v>5</v>
+      </c>
       <c r="AX17" s="8"/>
       <c r="AY17" s="9"/>
-      <c r="BG17">
-        <v>13</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="9:75" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK17">
+        <v>12</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="9:79" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
@@ -1412,7 +1703,7 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="2"/>
       <c r="AF18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG18" s="2"/>
       <c r="AH18" s="3"/>
@@ -1420,14 +1711,17 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="2"/>
       <c r="BC18" s="3"/>
-      <c r="BG18">
-        <v>14</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="9:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BK18">
+        <v>13</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="9:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
@@ -1444,14 +1738,17 @@
         <v>6</v>
       </c>
       <c r="BC19" s="6"/>
-      <c r="BG19">
-        <v>15</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="9:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BK19">
+        <v>14</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="9:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" s="4"/>
       <c r="J20" s="5" t="s">
         <v>12</v>
@@ -1474,13 +1771,15 @@
       <c r="AB20" s="10"/>
       <c r="AC20" s="33"/>
       <c r="AD20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="10"/>
+      <c r="AH20" s="19">
+        <v>10</v>
+      </c>
+      <c r="AI20" s="53"/>
       <c r="AJ20" s="10"/>
       <c r="AK20" s="10"/>
       <c r="AL20" s="2">
@@ -1504,14 +1803,17 @@
         <v>11</v>
       </c>
       <c r="BC20" s="6"/>
-      <c r="BG20">
-        <v>16</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="9:75" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK20">
+        <v>14</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>67</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="9:79" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I21" s="4"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
@@ -1528,14 +1830,17 @@
       <c r="BA21" s="4"/>
       <c r="BB21" s="5"/>
       <c r="BC21" s="6"/>
-      <c r="BG21">
-        <v>17</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="9:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BK21">
+        <v>15</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>70</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="9:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I22" s="7"/>
       <c r="J22" s="8"/>
       <c r="K22" s="9"/>
@@ -1544,7 +1849,7 @@
       <c r="AD22" s="7"/>
       <c r="AE22" s="8"/>
       <c r="AF22" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG22" s="8"/>
       <c r="AH22" s="9"/>
@@ -1554,14 +1859,17 @@
       <c r="BA22" s="7"/>
       <c r="BB22" s="8"/>
       <c r="BC22" s="9"/>
-      <c r="BG22">
-        <v>10</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="9:75" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BK22">
+        <v>16</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="9:79" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M23" s="1"/>
       <c r="N23" s="2"/>
       <c r="P23" s="2"/>
@@ -1575,11 +1883,11 @@
       <c r="AV23" s="2"/>
       <c r="AX23" s="2"/>
       <c r="AY23" s="3"/>
-      <c r="BG23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="9:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CA23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="9:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -1600,8 +1908,11 @@
       </c>
       <c r="AX24" s="5"/>
       <c r="AY24" s="6"/>
-    </row>
-    <row r="25" spans="9:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BZ24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="9:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M25" s="7"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -1621,8 +1932,11 @@
       <c r="AW25" s="8"/>
       <c r="AX25" s="8"/>
       <c r="AY25" s="9"/>
-    </row>
-    <row r="26" spans="9:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CA25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="9:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S26" s="11"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="5"/>
@@ -1634,14 +1948,11 @@
       <c r="AL26" s="8"/>
       <c r="AM26" s="9"/>
       <c r="AS26" s="11"/>
-      <c r="BG26">
-        <v>1</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="9:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BZ26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="9:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S27" s="11"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="8"/>
@@ -1649,25 +1960,19 @@
       <c r="AC27" s="9"/>
       <c r="AF27" s="11"/>
       <c r="AS27" s="11"/>
-      <c r="BG27">
-        <v>2</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="9:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CA27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="9:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S28" s="11"/>
       <c r="AF28" s="11"/>
       <c r="AS28" s="11"/>
-      <c r="BG28">
-        <v>3</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="9:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CA28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="9:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S29" s="11"/>
       <c r="AF29" s="11"/>
       <c r="AL29" s="17"/>
@@ -1681,16 +1986,19 @@
       <c r="BW29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="9:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BZ29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="9:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S30" s="11"/>
       <c r="AF30" s="11"/>
       <c r="AL30" s="11"/>
-      <c r="BG30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="9:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="CA30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="9:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S31" s="25"/>
       <c r="T31" s="2"/>
       <c r="U31" s="14"/>
@@ -1709,8 +2017,11 @@
       <c r="AQ31" s="1"/>
       <c r="AR31" s="2"/>
       <c r="AS31" s="3"/>
-    </row>
-    <row r="32" spans="9:75" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BZ31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="9:79" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S32" s="4"/>
       <c r="T32" s="38"/>
       <c r="U32" s="6"/>
@@ -1718,8 +2029,11 @@
       <c r="AQ32" s="4"/>
       <c r="AR32" s="5"/>
       <c r="AS32" s="6"/>
-    </row>
-    <row r="33" spans="13:66" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CA32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="13:76" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M33" s="13"/>
       <c r="S33" s="4"/>
       <c r="T33" s="39"/>
@@ -1731,10 +2045,8 @@
       <c r="AY33" s="13">
         <v>4</v>
       </c>
-      <c r="BM33" s="19"/>
-      <c r="BN33" s="6"/>
-    </row>
-    <row r="34" spans="13:66" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="13:76" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M34" s="22"/>
       <c r="S34" s="4"/>
       <c r="T34" s="39"/>
@@ -1745,7 +2057,7 @@
       <c r="AS34" s="6"/>
       <c r="AY34" s="22"/>
     </row>
-    <row r="35" spans="13:66" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="13:76" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M35" s="27"/>
       <c r="N35" s="10"/>
       <c r="O35" s="26"/>
@@ -1776,7 +2088,7 @@
       <c r="AX35" s="29"/>
       <c r="AY35" s="9"/>
     </row>
-    <row r="36" spans="13:66" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:76" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O36" s="4"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -1803,7 +2115,7 @@
       <c r="AV36" s="5"/>
       <c r="AW36" s="6"/>
     </row>
-    <row r="37" spans="13:66" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:76" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O37" s="4"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
@@ -1830,7 +2142,7 @@
       <c r="AV37" s="5"/>
       <c r="AW37" s="6"/>
     </row>
-    <row r="38" spans="13:66" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="13:76" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O38" s="4"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
@@ -1857,7 +2169,7 @@
       <c r="AV38" s="5"/>
       <c r="AW38" s="6"/>
     </row>
-    <row r="39" spans="13:66" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="13:76" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O39" s="7"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
@@ -1892,33 +2204,216 @@
       <c r="AV39" s="8"/>
       <c r="AW39" s="9"/>
     </row>
-    <row r="40" spans="13:66" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:76" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE40" s="4"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="6"/>
     </row>
-    <row r="41" spans="13:66" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:76" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE41" s="4"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="6"/>
     </row>
-    <row r="42" spans="13:66" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:76" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE42" s="4"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="6"/>
-    </row>
-    <row r="43" spans="13:66" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BH42">
+        <v>1</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS42">
+        <v>2</v>
+      </c>
+      <c r="BW42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="13:76" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AE43" s="7"/>
       <c r="AF43">
         <v>1</v>
       </c>
       <c r="AG43" s="9"/>
-    </row>
-    <row r="44" spans="13:66" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH43">
+        <v>2</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP43" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="13:76" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AF44" s="11"/>
-    </row>
-    <row r="45" spans="13:66" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH44">
+        <v>3</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS44">
+        <v>2</v>
+      </c>
+      <c r="BW44">
+        <v>2</v>
+      </c>
+      <c r="BX44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="13:76" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AF45" s="11"/>
+      <c r="BH45">
+        <v>4</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP45" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="13:76" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH46">
+        <v>5</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW46">
+        <v>3</v>
+      </c>
+      <c r="BX46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="13:76" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH47">
+        <v>6</v>
+      </c>
+      <c r="BI47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="13:76" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH48">
+        <v>7</v>
+      </c>
+      <c r="BI48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="60:61" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH49">
+        <v>8</v>
+      </c>
+      <c r="BI49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="60:61" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH50">
+        <v>9</v>
+      </c>
+      <c r="BI50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="60:61" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH51">
+        <v>10</v>
+      </c>
+      <c r="BI51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="60:61" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH52">
+        <v>11</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="60:61" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH53">
+        <v>12</v>
+      </c>
+      <c r="BI53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="60:61" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH54">
+        <v>13</v>
+      </c>
+      <c r="BI54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="60:61" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH55">
+        <v>14</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="60:61" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH56">
+        <v>15</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="60:61" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH57">
+        <v>16</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="60:61" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH58">
+        <v>17</v>
+      </c>
+      <c r="BI58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="60:61" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH59">
+        <v>10</v>
+      </c>
+      <c r="BI59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="60:61" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH60">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
